--- a/docs/Devices.xlsx
+++ b/docs/Devices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>อุปกรณ์ Smart Farm Project</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>https://www.seeedstudio.com/Grove-Gas-Sensor(O2)-p-1541.html</t>
+  </si>
+  <si>
+    <t>2-Channel 5V Relay Module</t>
+  </si>
+  <si>
+    <t>http://www.arduino.codemobiles.com/product/14/2-channel-5v-relay-module</t>
+  </si>
+  <si>
+    <t>20X4 Character LCD Module Display</t>
+  </si>
+  <si>
+    <t>http://www.arduino.codemobiles.com/product/211/20x4-character-lcd-module-display-yellow-screen-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9A%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B5-i2c-interface</t>
   </si>
 </sst>
 </file>
@@ -430,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,83 +501,107 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>590</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>290</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1490</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>590</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1490</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>1815</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>759</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <f>SUM(B3:B8)</f>
-        <v>4350</v>
-      </c>
-      <c r="C9" s="1">
-        <f>SUM(C5:C8)</f>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <f>SUM(B3:B10)</f>
+        <v>4730</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C7:C10)</f>
         <v>919</v>
       </c>
-      <c r="D9" s="1">
-        <f>SUM(B9:C9)</f>
-        <v>5269</v>
+      <c r="D11" s="1">
+        <f>SUM(B11:C11)</f>
+        <v>5649</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/docs/Devices.xlsx
+++ b/docs/Devices.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Device" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensor" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>อุปกรณ์ Smart Farm Project</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -39,24 +36,12 @@
     <t>Moisture &amp; PH Sensor</t>
   </si>
   <si>
-    <t>http://www.arduinostep.com/product/361/%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-moisture-ph-%E0%B9%83%E0%B8%99%E0%B8%94%E0%B8%B4%E0%B8%99-%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89-2-%E0%B8%84%E0%B9%88%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99</t>
-  </si>
-  <si>
-    <t>https://www.arduinoall.com/product/1699/mg-811-carbon-dioxide-co2-sensor-module-%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B9%8A%E0%B8%B2%E0%B8%8B%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B9%84%E0%B8%94%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%8B%E0%B8%94%E0%B9%8C-co2</t>
-  </si>
-  <si>
     <t>Arduino UNO R3</t>
   </si>
   <si>
     <t>http://www.arduino.codemobiles.com/product/1/arduino-uno-r3-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2-usb-type-a-male-b-male-cable-2</t>
   </si>
   <si>
-    <t>WiFi Module</t>
-  </si>
-  <si>
-    <t>http://www.arduino.codemobiles.com/product/9/esp-01-esp8266-wifi-module</t>
-  </si>
-  <si>
     <t>Digital Temperature and Humidity Sensor DHT11</t>
   </si>
   <si>
@@ -82,6 +67,84 @@
   </si>
   <si>
     <t>http://www.arduino.codemobiles.com/product/211/20x4-character-lcd-module-display-yellow-screen-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9A%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B5-i2c-interface</t>
+  </si>
+  <si>
+    <t>NodeMCU</t>
+  </si>
+  <si>
+    <t>http://www.arduino.codemobiles.com/product/3/nodemcu-development-kit-v2-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2-usb-node-mcu</t>
+  </si>
+  <si>
+    <t>Shipping+Tax</t>
+  </si>
+  <si>
+    <t>http://www.arduinostep.com/product/361/%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C-</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Moisture</t>
+  </si>
+  <si>
+    <t>ความชื้นในดิน</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>0 - 100</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>3.5 - 8</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>อุณภูมิ</t>
+  </si>
+  <si>
+    <t>ความชื้นสัมพัทธ์</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0 - 50</t>
+  </si>
+  <si>
+    <t>20 - 90</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>0 - 25</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>350 - 10000</t>
+  </si>
+  <si>
+    <t>https://www.arduinoall.com/product/1699/mg-811-carbon-dioxide-co2-sensor-module-</t>
   </si>
 </sst>
 </file>
@@ -137,9 +200,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,128 +531,143 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
         <v>280</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>280</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
         <v>290</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>75</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>590</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
         <v>1490</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
         <v>1815</v>
       </c>
-      <c r="C10">
-        <v>759</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+      <c r="C10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <f>SUM(B3:B10)</f>
-        <v>4730</v>
-      </c>
-      <c r="C11" s="1">
+        <v>4910</v>
+      </c>
+      <c r="C11" s="4">
         <f>SUM(C7:C10)</f>
-        <v>919</v>
-      </c>
-      <c r="D11" s="1">
+        <v>1660</v>
+      </c>
+      <c r="D11" s="4">
         <f>SUM(B11:C11)</f>
-        <v>5649</v>
-      </c>
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -599,21 +677,116 @@
     <hyperlink ref="E10" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
     <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Devices.xlsx
+++ b/docs/Devices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>อุปกรณ์ Smart Farm Project</t>
   </si>
@@ -42,12 +42,6 @@
     <t>http://www.arduino.codemobiles.com/product/1/arduino-uno-r3-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2-usb-type-a-male-b-male-cable-2</t>
   </si>
   <si>
-    <t>Digital Temperature and Humidity Sensor DHT11</t>
-  </si>
-  <si>
-    <t>http://www.arduino.codemobiles.com/product/195/dht11-digital-temperature-and-humidity-sensor-dht11-%E0%B9%81%E0%B8%9A%E0%B8%9A-pcb-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F</t>
-  </si>
-  <si>
     <t>O2 GAS SENSOR</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
     <t>http://www.arduino.codemobiles.com/product/14/2-channel-5v-relay-module</t>
   </si>
   <si>
-    <t>20X4 Character LCD Module Display</t>
-  </si>
-  <si>
-    <t>http://www.arduino.codemobiles.com/product/211/20x4-character-lcd-module-display-yellow-screen-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9A%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B5-i2c-interface</t>
-  </si>
-  <si>
     <t>NodeMCU</t>
   </si>
   <si>
@@ -145,6 +133,12 @@
   </si>
   <si>
     <t>https://www.arduinoall.com/product/1699/mg-811-carbon-dioxide-co2-sensor-module-</t>
+  </si>
+  <si>
+    <t>http://www.arduino.codemobiles.com/product/246/dht22-am2302-module-%E0%B9%82%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%A5%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AD%E0%B8%B8%E0%B8%93%E0%B8%AB%E0%B8%A0%E0%B8%B9%E0%B8%A1%E0%B8%B4%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-temperature-and-humidity-sensor-module-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F</t>
+  </si>
+  <si>
+    <t>Digital Temperature and Humidity Sensor DHT22</t>
   </si>
 </sst>
 </file>
@@ -505,16 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -555,7 +550,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>280</v>
@@ -563,12 +558,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
@@ -576,112 +571,98 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
-        <v>290</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>75</v>
+        <v>590</v>
       </c>
       <c r="C7" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>590</v>
+        <v>1490</v>
       </c>
       <c r="C8" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>1490</v>
+        <v>1815</v>
       </c>
       <c r="C9" s="3">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1815</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="4">
+        <f>SUM(B3:B9)</f>
+        <v>4705</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C6:C9)</f>
+        <v>1660</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(B10:C10)</f>
+        <v>6365</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <f>SUM(B3:B10)</f>
-        <v>4910</v>
-      </c>
-      <c r="C11" s="4">
-        <f>SUM(C7:C10)</f>
-        <v>1660</v>
-      </c>
-      <c r="D11" s="4">
-        <f>SUM(B11:C11)</f>
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId3" display="http://www.arduino.codemobiles.com/product/195/dht11-digital-temperature-and-humidity-sensor-dht11-%E0%B9%81%E0%B8%9A%E0%B8%9A-pcb-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F"/>
+    <hyperlink ref="E9" r:id="rId4"/>
     <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -689,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -702,86 +683,86 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Devices.xlsx
+++ b/docs/Devices.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>อุปกรณ์ Smart Farm Project</t>
   </si>
@@ -45,9 +45,6 @@
     <t>O2 GAS SENSOR</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2 Sensor Module </t>
-  </si>
-  <si>
     <t>https://www.seeedstudio.com/Grove-Gas-Sensor(O2)-p-1541.html</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>0 - 50</t>
-  </si>
-  <si>
-    <t>20 - 90</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -129,16 +120,22 @@
     <t>ppm</t>
   </si>
   <si>
-    <t>350 - 10000</t>
-  </si>
-  <si>
-    <t>https://www.arduinoall.com/product/1699/mg-811-carbon-dioxide-co2-sensor-module-</t>
-  </si>
-  <si>
     <t>http://www.arduino.codemobiles.com/product/246/dht22-am2302-module-%E0%B9%82%E0%B8%A1%E0%B8%94%E0%B8%B9%E0%B8%A5%E0%B8%A7%E0%B8%B1%E0%B8%94%E0%B8%AD%E0%B8%B8%E0%B8%93%E0%B8%AB%E0%B8%A0%E0%B8%B9%E0%B8%A1%E0%B8%B4%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-temperature-and-humidity-sensor-module-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F</t>
   </si>
   <si>
     <t>Digital Temperature and Humidity Sensor DHT22</t>
+  </si>
+  <si>
+    <t>https://www.arduinoall.com/product/1156/mh-z14-co2-ndir-gas-sensor</t>
+  </si>
+  <si>
+    <t>CO2 GAS SENSOR</t>
+  </si>
+  <si>
+    <t>0 - 5000</t>
+  </si>
+  <si>
+    <t>-40 - 80</t>
   </si>
 </sst>
 </file>
@@ -191,12 +188,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +500,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -550,7 +548,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>280</v>
@@ -558,12 +556,12 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
@@ -571,12 +569,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>160</v>
@@ -586,7 +584,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,22 +599,22 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3">
-        <v>1490</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="3">
         <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,13 +629,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <f>SUM(B3:B9)</f>
-        <v>4705</v>
+        <v>4415</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C6:C9)</f>
@@ -645,7 +643,7 @@
       </c>
       <c r="D10" s="4">
         <f>SUM(B10:C10)</f>
-        <v>6365</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,7 +669,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,86 +681,86 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Devices.xlsx
+++ b/docs/Devices.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
